--- a/Ada.Web/upload/headline.xlsx
+++ b/Ada.Web/upload/headline.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="418">
   <si>
     <t>序号</t>
   </si>
@@ -69,12 +69,6 @@
     <t>X1712181351220014</t>
   </si>
   <si>
-    <t>ITFanr科技范儿</t>
-  </si>
-  <si>
-    <t>科技生活</t>
-  </si>
-  <si>
     <t>娱乐</t>
   </si>
   <si>
@@ -84,811 +78,1205 @@
     <t>数码科技</t>
   </si>
   <si>
-    <t>科技指南者</t>
-  </si>
-  <si>
-    <t>家居新闻网</t>
-  </si>
-  <si>
-    <t>生活资讯馆</t>
-  </si>
-  <si>
-    <t>新资讯生活</t>
-  </si>
-  <si>
-    <t>家居生活资讯</t>
-  </si>
-  <si>
-    <t>新闻生活</t>
-  </si>
-  <si>
-    <t>资讯热门</t>
-  </si>
-  <si>
-    <t>科技数码点评</t>
-  </si>
-  <si>
-    <t>科技老怪</t>
-  </si>
-  <si>
     <t>科技推荐</t>
   </si>
   <si>
     <t>科技热门分享</t>
   </si>
   <si>
-    <t>新汽车大全</t>
-  </si>
-  <si>
-    <t>汽车之界</t>
-  </si>
-  <si>
-    <t>焦点汽车市场</t>
-  </si>
-  <si>
-    <t>聚焦新汽车技术</t>
-  </si>
-  <si>
-    <t>汽车传播网</t>
-  </si>
-  <si>
-    <t>汽车互联网快讯</t>
-  </si>
-  <si>
-    <t>汽车互联网商界</t>
-  </si>
-  <si>
-    <t>汽车之城</t>
-  </si>
-  <si>
-    <t>车车时代</t>
-  </si>
-  <si>
-    <t>汽车底蕴</t>
-  </si>
-  <si>
-    <t>车时代头条</t>
-  </si>
-  <si>
-    <t>互联网汽车大全</t>
-  </si>
-  <si>
-    <t>买车选车</t>
-  </si>
-  <si>
-    <t>汽车前沿观察</t>
-  </si>
-  <si>
-    <t>汽车新闻报道</t>
-  </si>
-  <si>
-    <t>汽车资讯网</t>
-  </si>
-  <si>
-    <t>汽车的未来</t>
-  </si>
-  <si>
-    <t>汽车先知道</t>
-  </si>
-  <si>
-    <t>天谈汽车</t>
-  </si>
-  <si>
-    <t>车驰马骤</t>
-  </si>
-  <si>
-    <t>马咽车阗</t>
-  </si>
-  <si>
-    <t>汽车录</t>
-  </si>
-  <si>
-    <t>汽车王牌侦探</t>
-  </si>
-  <si>
-    <t>汽车之庭</t>
-  </si>
-  <si>
-    <t>小三看车</t>
-  </si>
-  <si>
-    <t>车马填门</t>
-  </si>
-  <si>
-    <t>车友一族</t>
-  </si>
-  <si>
-    <t>滴滴滴开车了</t>
-  </si>
-  <si>
-    <t>汽车人出发了</t>
-  </si>
-  <si>
-    <t>无车一代</t>
-  </si>
-  <si>
-    <t>小昭的小马驹</t>
-  </si>
-  <si>
-    <t>远闻观车</t>
-  </si>
-  <si>
-    <t>酷比汽车</t>
-  </si>
-  <si>
-    <t>中国汽车网讯</t>
-  </si>
-  <si>
-    <t>汽车杂烩</t>
-  </si>
-  <si>
-    <t>汽车圈子</t>
-  </si>
-  <si>
-    <t>智库选车</t>
-  </si>
-  <si>
-    <t>汽车资讯大全</t>
-  </si>
-  <si>
-    <t>汽车之都</t>
-  </si>
-  <si>
-    <t>汽车新闻网</t>
-  </si>
-  <si>
-    <t>企鹅说车</t>
-  </si>
-  <si>
-    <t>车在囧途</t>
-  </si>
-  <si>
-    <t>车闻君</t>
-  </si>
-  <si>
-    <t>车随心行</t>
-  </si>
-  <si>
-    <t>车事观察</t>
-  </si>
-  <si>
-    <t>suv车酷</t>
-  </si>
-  <si>
-    <t>用车养车</t>
-  </si>
-  <si>
-    <t>汽车新天地</t>
-  </si>
-  <si>
-    <t>汽车侃谈烩</t>
-  </si>
-  <si>
-    <t>车评</t>
-  </si>
-  <si>
-    <t>汽车资讯讲堂</t>
-  </si>
-  <si>
-    <t>车资讯速递</t>
-  </si>
-  <si>
-    <t>汽车行珍惜</t>
-  </si>
-  <si>
-    <t>汽车懂车帝</t>
-  </si>
-  <si>
-    <t>汽车大观界</t>
-  </si>
-  <si>
-    <t>汽车新视眼</t>
-  </si>
-  <si>
-    <t>谈车用车</t>
-  </si>
-  <si>
-    <t>蜗牛讲汽车</t>
-  </si>
-  <si>
-    <t>天祥说汽车</t>
-  </si>
-  <si>
-    <t>车行天下事</t>
-  </si>
-  <si>
-    <t>七彩的小汽车</t>
-  </si>
-  <si>
-    <t>爱的小车车</t>
-  </si>
-  <si>
-    <t>小小车神</t>
-  </si>
-  <si>
-    <t>新科技汽车</t>
-  </si>
-  <si>
-    <t>寰球汽车报</t>
-  </si>
-  <si>
-    <t>暮意车讯</t>
-  </si>
-  <si>
-    <t>中经汽车网</t>
-  </si>
-  <si>
-    <t>东方汽车报</t>
-  </si>
-  <si>
-    <t>商业汽车观</t>
-  </si>
-  <si>
-    <t>汽车前沿视野</t>
-  </si>
-  <si>
-    <t>汽车观察圈</t>
-  </si>
-  <si>
-    <t>汽车界线</t>
-  </si>
-  <si>
-    <t>新艺车报网</t>
-  </si>
-  <si>
-    <t>全球汽车交流</t>
-  </si>
-  <si>
-    <t>科技影响力</t>
-  </si>
-  <si>
-    <t>科技站兵</t>
-  </si>
-  <si>
-    <t>汽车全知</t>
-  </si>
-  <si>
-    <t>爱车识途</t>
-  </si>
-  <si>
-    <t>汽车大网络</t>
-  </si>
-  <si>
-    <t>爱阅汽车</t>
-  </si>
-  <si>
-    <t>汽车公园号</t>
-  </si>
-  <si>
-    <t>拇指汽车</t>
-  </si>
-  <si>
-    <t>执爱汽车</t>
-  </si>
-  <si>
-    <t>小松鼠说车</t>
-  </si>
-  <si>
-    <t>汽车小基地</t>
-  </si>
-  <si>
-    <t>科技与汽车热闻</t>
-  </si>
-  <si>
-    <t>汽车在线资讯</t>
-  </si>
-  <si>
-    <t>汽车新闻热点</t>
-  </si>
-  <si>
-    <t>用车常识宝典</t>
-  </si>
-  <si>
-    <t>车改装文化</t>
-  </si>
-  <si>
-    <t>车行店小二</t>
-  </si>
-  <si>
-    <t>车市名爵</t>
-  </si>
-  <si>
-    <t>车观致慧</t>
-  </si>
-  <si>
-    <t>车生活知识</t>
-  </si>
-  <si>
-    <t>汽车之家大数据</t>
-  </si>
-  <si>
-    <t>极客汽车</t>
-  </si>
-  <si>
-    <t>kc评测汽车</t>
-  </si>
-  <si>
-    <t>观察新闻</t>
-  </si>
-  <si>
-    <t>家居家电网 </t>
-  </si>
-  <si>
-    <t>汽车微辣评</t>
-  </si>
-  <si>
-    <t>车界相对论</t>
-  </si>
-  <si>
-    <t>汽车一家</t>
-  </si>
-  <si>
-    <t>汽车头条网</t>
-  </si>
-  <si>
-    <t>汽车新锋尚</t>
-  </si>
-  <si>
-    <t>汽车锋尚</t>
-  </si>
-  <si>
-    <t>汽车与观察</t>
-  </si>
-  <si>
-    <t>汽车说</t>
-  </si>
-  <si>
-    <t>中国娱乐新闻</t>
-  </si>
-  <si>
-    <t>娱乐小本营</t>
-  </si>
-  <si>
-    <t>互联圈娱乐</t>
-  </si>
-  <si>
-    <t>时尚娱乐圈</t>
-  </si>
-  <si>
-    <t>全民汽车</t>
-  </si>
-  <si>
-    <t>谈车说事</t>
-  </si>
-  <si>
-    <t>搜狐</t>
-  </si>
-  <si>
-    <t>UC</t>
-  </si>
-  <si>
-    <t>腾讯</t>
-  </si>
-  <si>
-    <t>网易</t>
-  </si>
-  <si>
-    <t>一点资讯</t>
-  </si>
-  <si>
-    <t>百度百家</t>
-  </si>
-  <si>
-    <t>UC头条</t>
-  </si>
-  <si>
-    <t>新浪</t>
-  </si>
-  <si>
-    <t>腾讯新闻</t>
-  </si>
-  <si>
-    <t>凤凰</t>
-  </si>
-  <si>
-    <t>科技</t>
-  </si>
-  <si>
     <t>汽车</t>
   </si>
   <si>
-    <t>http://www.sohu.com/a/272816346_434258</t>
-  </si>
-  <si>
-    <t>http://a.mp.uc.cn/article.html?uc_param_str=frdnsnpfvecpntnwprdssskt&amp;from=media#!wm_cid=253986579969474560!!wm_aid=29a0a0af657b4e42b11c15725c30b494!!wm_id=45c4276c73b84deb94fa7068c4785025</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/272868085_578724</t>
-  </si>
-  <si>
-    <t>https://new.qq.com/omn/20181105A0P7WN00</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/DVRM4JK30520LETH.html</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KQyHIv6</t>
-  </si>
-  <si>
-    <t>http://baijiahao.baidu.com/builder/preview/s?id=1616275156802489560</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6620676883971310088/</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6620675497040806408/</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6620696143472886279</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6620695224576393742</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6620941518884569613/</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1XVCT00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1YEBC00</t>
-  </si>
-  <si>
-    <t>http://view.inews.qq.com/a/20181108A0IYFB00</t>
-  </si>
-  <si>
-    <t>http://view.inews.qq.com/a/20181108A0IRQ000</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1YVDW00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1Z0FH00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1XRP900</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1XXYZ00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1YYA500</t>
-  </si>
-  <si>
-    <t>http://view.inews.qq.com/a/20181107A204FQ00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1ZAVP00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1Z7U000</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1ZDBM00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1ZFBD00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1XSYD00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1XWSQ00</t>
-  </si>
-  <si>
-    <t>http://view.inews.qq.com/a/20181107A1Y0RU00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A214HM00</t>
-  </si>
-  <si>
-    <t>https://view.inews.qq.com/a/20181107A22F1T00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1ZIA300</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1ZLFY00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1ZNL100</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1ZPJG00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1ZT8M00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A1ZZ7800</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A203XG00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A20CPO00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A20EWZ00</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A20GY100</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A20KY300</t>
-  </si>
-  <si>
-    <t>http://kuaibao.qq.com/s/20181107A20MXY00</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01RRFR50527SHTD.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01SJNR60527EOU2.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01RSSJ50527K54T.html</t>
-  </si>
-  <si>
-    <t>https://c.m.163.com/news/a/E01QSBVR0527CKUQ.html?spss=newsapp&amp;spsw=2&amp;spssid=95acdd5d803f71e9df15d977cc8dc570</t>
-  </si>
-  <si>
-    <t>https://c.m.163.com/news/a/E01QVIHD0527CJ2H.html?spss=newsapp&amp;spsw=2&amp;spssid=95acdd5d803f71e9df15d977cc8dc570</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01SM1VV0527N8LB.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01SNF2T0527N8L5.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01SOU7D0527N8N9.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01RUD7I0527K0QO.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01SQEIM0527N78F.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01SS82Q0527N9JJ.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01STMHS0527N8KN.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01SV3K60529LK17.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01T0OVK0527N8NG.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01T25AL0527N9JV.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E01S4CF50527PRRI.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E02V59O50527CSIO.html</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E02V6RKR0527CMJL.html</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273894031_446370</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273894339_100059572</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273894159_100059631</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273894477_100073906</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273894716_100068170</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273894845_100073956</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273894874_100073963</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273894894_99989193</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273895116_100258707</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273894993_120001990</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273895243_100068379</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273895256_100253143</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273895179_120006799</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273895504_120006809</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/273895583_120006814</t>
-  </si>
-  <si>
-    <t>http://www.yidianzixun.com/article/0KSkt9Ce</t>
-  </si>
-  <si>
-    <t>http://www.yidianzixun.com/article/0KSlA7YC</t>
-  </si>
-  <si>
-    <t>http://www.yidianzixun.com/article/0KSj0vBW</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6621347079010648584/</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6621346383527936515/</t>
-  </si>
-  <si>
-    <t>http://a.mp.uc.cn/article.html?uc_param_str=frdnsnpfvecpntnwprdssskt&amp;from=media#!wm_cid=254937510166923264!!wm_aid=495f0fc6543a449684ad030ffaf4276d!!wm_id=31b9c7c7cf1242a5b8a66a5afe4f3e68</t>
-  </si>
-  <si>
-    <t>http://a.mp.uc.cn/article.html?uc_param_str=frdnsnpfvecpntnwprdssskt&amp;from=media#!wm_cid=254939185403397120!!wm_aid=b3648d81467c42f4894e7658b968f4cb!!wm_id=d0bf442aee3048b6b0570b940b41358f</t>
-  </si>
-  <si>
-    <t>http://a.mp.uc.cn/article.html?uc_param_str=frdnsnpfvecpntnwprdssskt&amp;from=media#!wm_cid=254940932257615872!!wm_aid=bbc48f5cd2f047828a7e8951e6ad6a68!!wm_id=74267570fcb049309ff0e291cb3d3a35</t>
-  </si>
-  <si>
-    <t>https://mparticle.uc.cn/article.html?spm=a2s0i.db_contents.content.10.67c73caafgarnr&amp;uc_param_str=frdnsnpfvecpntnwprdssskt&amp;wm_id=3662ae0853bf40448e8b7e266fe86e82&amp;wm_aid=bcf33a576f2b4ad9ad8f94a1e90d87c6</t>
-  </si>
-  <si>
-    <t>http://k.sina.com.cn/article_6534873489_18582419100100dhl1.html?from=auto&amp;subch=nauto</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6621295248574251533</t>
-  </si>
-  <si>
-    <t>http://k.sina.com.cn/article_1904270867_v7180de1300100bsty.html?from=auto&amp;subch=nauto</t>
-  </si>
-  <si>
-    <t>http://k.sina.com.cn/article_1896636700_v710c611c00100c35x.html?from=auto&amp;subch=nauto</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6621331183462515214/</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6621334171312718349/</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KT83Lku</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KT4MJvM</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KT5z7wv</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KT82DjJ</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/274091110_120006829</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/274091282_120006842</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/274091496_120006852</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/274091754_120006864</t>
-  </si>
-  <si>
-    <t>https://www.sohu.com/a/274091948_120006866</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6621498548548551172/</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6621502099060425230/</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6621506921029435917/</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6621503629314490888/</t>
-  </si>
-  <si>
-    <t>http://k.sina.com.cn/article_6364135063_v17b54fe9700100c5ge.html?from=auto&amp;subch=nauto</t>
-  </si>
-  <si>
-    <t>http://k.sina.com.cn/article_6364132064_v17b54f2e000100dyho.html?from=auto&amp;subch=nauto</t>
-  </si>
-  <si>
-    <t>http://k.sina.com.cn/article_6358539007_v17aff9aff00100bd8c.html?from=auto&amp;subch=nauto</t>
-  </si>
-  <si>
-    <t>https://k.sina.cn/article_6358539018_v17aff9b0a00100cls3.html?from=auto&amp;subch=nauto&amp;http=fromhttp</t>
-  </si>
-  <si>
-    <t>https://k.sina.cn/article_6358541667_v17affa56300100bayx.html?from=auto&amp;subch=nauto&amp;http=fromhttp</t>
-  </si>
-  <si>
-    <t>https://k.sina.cn/article_6364130168_v17b54eb7800100cdnk.html?from=auto&amp;subch=nauto&amp;http=fromhttp</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KUmBP4T</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KUmBSie</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KUm91xX</t>
-  </si>
-  <si>
-    <t>https://www.sohu.com/a/274264686_100107604</t>
-  </si>
-  <si>
-    <t>https://www.sohu.com/a/274283486_577196</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20181109A25M2A00</t>
-  </si>
-  <si>
-    <t>https://m.toutiaolite.com/item/6622862411323933198</t>
-  </si>
-  <si>
-    <t>https://m.toutiaolite.com/item/6622862032985129485</t>
-  </si>
-  <si>
-    <t>https://www.sohu.com/a/274750768_615192</t>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/274763913_484091</t>
-  </si>
-  <si>
-    <t>http://view.inews.qq.com/a/20181112A0XKCN00</t>
-  </si>
-  <si>
-    <t>http://view.inews.qq.com/a/20181112A0XRIA00</t>
-  </si>
-  <si>
-    <t>http://dy.163.com/v2/article/detail/E0DT8QUV0527MBC2.html</t>
-  </si>
-  <si>
-    <t>https://c.m.163.com/news/a/E0DTMRV80527C07T.html</t>
-  </si>
-  <si>
-    <t>http://wemedia.ifeng.com/87270919/wemedia.shtml</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20181112A0Z0UV00</t>
-  </si>
-  <si>
-    <t>http://c.m.163.com/news/a/E0E2L9T60526KPKP.html</t>
-  </si>
-  <si>
-    <t>https://view.inews.qq.com/a/20181112A13C1C00</t>
-  </si>
-  <si>
-    <t>https://mparticle.uc.cn/article.html?spm=a2s0i.db_contents.content.10.1e2a3caa45pSyu&amp;uc_param_str=frdnsnpfvecpntnwprdssskt&amp;wm_id=06e79b867d974b7b9076742a2470b122&amp;wm_aid=67319e8a76c94d65bd8441a2737eabaa</t>
-  </si>
-  <si>
-    <t>https://www.toutiao.com/i6622876003779740173/</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KX7w3oY?searchword=%E5%85%A8%E6%B0%91%E6%B1%BD%E8%BD%A6</t>
-  </si>
-  <si>
-    <t>https://www.yidianzixun.com/article/0KX7zwRb</t>
-  </si>
-  <si>
     <t>X1801051650130007</t>
+  </si>
+  <si>
+    <t>喵兔美妆手记</t>
+  </si>
+  <si>
+    <t>https://url.cn/5kZimr8</t>
+  </si>
+  <si>
+    <t>财经报导</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6518510591173198343/</t>
+  </si>
+  <si>
+    <t>财经壹观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6569347816630518276/</t>
+  </si>
+  <si>
+    <t>观察壹资讯</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6535980886100279822/</t>
+  </si>
+  <si>
+    <t>旅游壹资讯</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536718577343398413/</t>
+  </si>
+  <si>
+    <t>母婴壹资讯</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536177126524060168/</t>
+  </si>
+  <si>
+    <t>汽车报导讯</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536491127107748355/</t>
+  </si>
+  <si>
+    <t>汽车壹观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536488354219819523/</t>
+  </si>
+  <si>
+    <t>商业观望</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6530512032205128196/</t>
+  </si>
+  <si>
+    <t>商业微资讯</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536355983940125188/</t>
+  </si>
+  <si>
+    <t>商业舆观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6537184607496831495/</t>
+  </si>
+  <si>
+    <t>时尚芭莎女人</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536380622821130760/</t>
+  </si>
+  <si>
+    <t>时尚壹报导</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536172406396944900/</t>
+  </si>
+  <si>
+    <t>文化与观点</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6535577217970209283/</t>
+  </si>
+  <si>
+    <t>壹点科技讯</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536162500772102670/</t>
+  </si>
+  <si>
+    <t>壹点影视娱乐</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6535221014270312973/</t>
+  </si>
+  <si>
+    <t>游戏微观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536382701702742532/</t>
+  </si>
+  <si>
+    <t>游戏壹资讯</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536849701549900291/</t>
+  </si>
+  <si>
+    <t>娱乐报导讯</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536370185341764110/</t>
+  </si>
+  <si>
+    <t>娱乐堂观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6535952292988846605/</t>
+  </si>
+  <si>
+    <t>娱乐壹报导</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6571676478419763726/</t>
+  </si>
+  <si>
+    <t>匠军</t>
+  </si>
+  <si>
+    <t>https://www.365yg.com/a6605167954248073731#mid=1577881728982030</t>
+  </si>
+  <si>
+    <t>历史时分</t>
+  </si>
+  <si>
+    <t>https://www.365yg.com/i6603325839683617287#mid=1577888666649614</t>
+  </si>
+  <si>
+    <t>时讯互联</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/58619567820/#mid=1563019111045121</t>
+  </si>
+  <si>
+    <t>财经评论</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536324158832247309/</t>
+  </si>
+  <si>
+    <t>房产家居</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6568744699874509326/</t>
+  </si>
+  <si>
+    <t>健康观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6560915752541487624/</t>
+  </si>
+  <si>
+    <t>健康资讯报</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536402219367924227/</t>
+  </si>
+  <si>
+    <t>教育报道</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6570093587181077006/</t>
+  </si>
+  <si>
+    <t>科技资讯报</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6543401461248688654/</t>
+  </si>
+  <si>
+    <t>旅游报道</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6556749300586512904/</t>
+  </si>
+  <si>
+    <t>美食报导</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6536408236147343886/</t>
+  </si>
+  <si>
+    <t>母婴观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6389477400559747585/</t>
+  </si>
+  <si>
+    <t>汽车前言</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6537940611243180547/</t>
+  </si>
+  <si>
+    <t>汽车微观察</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6459673946613613070/</t>
+  </si>
+  <si>
+    <t>商业报道</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6517102462321558029/</t>
+  </si>
+  <si>
+    <t>时尚生活网</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6537197016986944013/</t>
+  </si>
+  <si>
+    <t>体育报道</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6538745499468431879/</t>
+  </si>
+  <si>
+    <t>文化艺术秀</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6574537176174821901/</t>
+  </si>
+  <si>
+    <t>消费商资讯</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6543184375515709956/</t>
+  </si>
+  <si>
+    <t>游戏评论</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6554253412345577988/</t>
+  </si>
+  <si>
+    <t>娱乐报导</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6504817671073169934/</t>
+  </si>
+  <si>
+    <t>娱乐天下谈</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6539094789869011470/</t>
+  </si>
+  <si>
+    <t>77车评</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/52283573106/#mid=1566397805700098</t>
+  </si>
+  <si>
+    <t>KK车视频</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/57131914245/#mid=1561000806092801</t>
+  </si>
+  <si>
+    <t>vrarstar</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/m52237571043/</t>
+  </si>
+  <si>
+    <t>财经沙龙</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/71285415994/#mid=1580406043985934</t>
+  </si>
+  <si>
+    <t>疯狂的游戏</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/75929642783/#mid=1584109086802957</t>
+  </si>
+  <si>
+    <t>互联生活酷玩家</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/69050852234/#mid=1578411948459022</t>
+  </si>
+  <si>
+    <t>话说旅游新生活</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/67528105295/#mid=1576951542965262</t>
+  </si>
+  <si>
+    <t>环球旅游咖</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/69179715922/#mid=1578480199311374</t>
+  </si>
+  <si>
+    <t>江山如画品历史</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/3545487286/#mid=4189886453</t>
+  </si>
+  <si>
+    <t>教育行动派</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/69058521399/#mid=1578415389475854</t>
+  </si>
+  <si>
+    <t>剧说很好看</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/65934025224/#mid=1575491071634446</t>
+  </si>
+  <si>
+    <t>科技生活大视角</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/69065435641/#mid=1578419396161549</t>
+  </si>
+  <si>
+    <t>科技生活小智</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/68607375434/#mid=1578121907112973</t>
+  </si>
+  <si>
+    <t>篮球技术宝典</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/6842137293/#mid=6841816079</t>
+  </si>
+  <si>
+    <t>篮球少年</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/6503711076/#mid=6503992171</t>
+  </si>
+  <si>
+    <t>麻辣娱</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/5786940861/</t>
+  </si>
+  <si>
+    <t>每日科技百科原名每日汽车百科</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/88970928312/#mid=1591083797491715</t>
+  </si>
+  <si>
+    <t>美味生活小达人</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/70263757716/#mid=1579498628942862</t>
+  </si>
+  <si>
+    <t>明月娱乐</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/66649475187/#mid=1576068270632973</t>
+  </si>
+  <si>
+    <t>庖丁分析车</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/54530785646/#mid=1556771885883394</t>
+  </si>
+  <si>
+    <t>汽车大看点</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/4227059713/#mid=4227097552</t>
+  </si>
+  <si>
+    <t>汽车拓航者</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6477371338943103501/</t>
+  </si>
+  <si>
+    <t>汽车质量分析师</t>
+  </si>
+  <si>
+    <t>全球旅游热点</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/69073354392/#mid=1578423227479053</t>
+  </si>
+  <si>
+    <t>全球时尚生活伽</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/69055811423/#mid=1578414342836237</t>
+  </si>
+  <si>
+    <t>热话生活君</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/69062910917/#mid=1578417728215053</t>
+  </si>
+  <si>
+    <t>热话生活志</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/68717727385/#mid=1578229966091278</t>
+  </si>
+  <si>
+    <t>人人修车</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/5782125898/#mid=52359995671</t>
+  </si>
+  <si>
+    <t>三哥汽车笔记</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/63330514358/#mid=1572610715516941</t>
+  </si>
+  <si>
+    <t>生活爱琐事</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/53294489250/#mid=1554842684171265</t>
+  </si>
+  <si>
+    <t>生活大盘点</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/68720475416/#mid=1578233719084045</t>
+  </si>
+  <si>
+    <t>生活热点百态</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/6118538807/#mid=6118561116</t>
+  </si>
+  <si>
+    <t>实事球是说</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/52710710356/#mid=1553130070115329</t>
+  </si>
+  <si>
+    <t>校园逗士</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/66221797777/#mid=1575710133522445</t>
+  </si>
+  <si>
+    <t>新前沿科技观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/52375625565/#mid=52375685162</t>
+  </si>
+  <si>
+    <t>新鲜体育事</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/64985606550/#mid=1574693345220622</t>
+  </si>
+  <si>
+    <t>星光娱乐咖</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/66645530898/#mid=1576065069499405</t>
+  </si>
+  <si>
+    <t>一个生活小窍门</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/71366682408/#mid=1580485195660301</t>
+  </si>
+  <si>
+    <t>一品球天下</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/4765989426/#mid=4765989426</t>
+  </si>
+  <si>
+    <t>音乐大讲堂</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/3951066201/#mid=1589991041390599</t>
+  </si>
+  <si>
+    <t>游戏公社</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/76471142609/#mid=1584492732550158</t>
+  </si>
+  <si>
+    <t>娱乐嘟嘟嘟</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/62858421007/#mid=1571891864168450</t>
+  </si>
+  <si>
+    <t>娱乐时尚情报局</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/62529388468/#mid=1571263219559425</t>
+  </si>
+  <si>
+    <t>娱乐小傻喵</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/52691979743/#mid=1553047931841537</t>
+  </si>
+  <si>
+    <t>娱乐辛辣评</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/c/user/59353572715/#mid=1565429597343745</t>
+  </si>
+  <si>
+    <t>在日本</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/m4597252128/</t>
+  </si>
+  <si>
+    <t>中华书画博览</t>
+  </si>
+  <si>
+    <t>中日韩经济网</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/m4124714983/</t>
+  </si>
+  <si>
+    <t>众品科技</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/76439784557/#mid=1584472468163597</t>
+  </si>
+  <si>
+    <t>互联网潮科技</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/5500133889/#mid=6836751209</t>
+  </si>
+  <si>
+    <t>IT焦点</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6440046205455041026/</t>
+  </si>
+  <si>
+    <t>车汇聚</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6437632065264419329/</t>
+  </si>
+  <si>
+    <t>电影焦点</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6446744851256967693/</t>
+  </si>
+  <si>
+    <t>电影视点</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6448147028449952269/</t>
+  </si>
+  <si>
+    <t>房报道</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6448516397088637454/</t>
+  </si>
+  <si>
+    <t>观察游戏</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6395765237148025346/</t>
+  </si>
+  <si>
+    <t>互联视点</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6429991602114003457/</t>
+  </si>
+  <si>
+    <t>家居焦点</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6448594452033307149/</t>
+  </si>
+  <si>
+    <t>聚焦热闻</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6415838658976285185/</t>
+  </si>
+  <si>
+    <t>科技前沿聚焦</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6437084809184412161/</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6437418922474996226/</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6435735257265209858/</t>
+  </si>
+  <si>
+    <t>母婴焦点</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6438200121019597313/</t>
+  </si>
+  <si>
+    <t>前沿电商</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6462190904651285006/</t>
+  </si>
+  <si>
+    <t>生活报道</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6448589473277018637/</t>
+  </si>
+  <si>
+    <t>生活电商</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6566084080473997837/</t>
+  </si>
+  <si>
+    <t>体育快讯</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6448506678206792205/</t>
+  </si>
+  <si>
+    <t>游戏报道</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6448586509070123533/</t>
+  </si>
+  <si>
+    <t>游戏视点</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6448581740867879438/</t>
+  </si>
+  <si>
+    <t>娱乐泛观察</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6394978882633597441/</t>
+  </si>
+  <si>
+    <t>娱聊</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6432650584137925121/</t>
+  </si>
+  <si>
+    <t>娱星社</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6435199650466103810/</t>
+  </si>
+  <si>
+    <t>育儿关注</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6438194278924550658/</t>
+  </si>
+  <si>
+    <t>资讯电影</t>
+  </si>
+  <si>
+    <t>资讯时尚</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6564200345709314564/</t>
+  </si>
+  <si>
+    <t>资讯体育</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6564190072109793806/</t>
+  </si>
+  <si>
+    <t>TechVoice科技之声</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6497884568027136526/</t>
+  </si>
+  <si>
+    <t>潮流科技与生活</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/i6455898270374822414/</t>
+  </si>
+  <si>
+    <t>健康泛观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6543868004843651598/</t>
+  </si>
+  <si>
+    <t>汽车视界说</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6540032487312065028/</t>
+  </si>
+  <si>
+    <t>商业大论坛</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6540114017485062663/</t>
+  </si>
+  <si>
+    <t>资讯与观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/i6544232855118021123/</t>
+  </si>
+  <si>
+    <t>AI财经圈</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/87879357952/#mid=1598891715854350</t>
+  </si>
+  <si>
+    <t>AI汽车汇</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/88068772047/#mid=1590635612499982</t>
+  </si>
+  <si>
+    <t>healthy运动泛</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/60479514977/#mid=1567620070825985</t>
+  </si>
+  <si>
+    <t>I黑马汽车</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85626808940/#mid=1589454409666568</t>
+  </si>
+  <si>
+    <t>PGshow1</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85960490641/#mid=1589552824130564</t>
+  </si>
+  <si>
+    <t>TMT财经热闻</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/82483216145/#mid=1598895913652232</t>
+  </si>
+  <si>
+    <t>TMT生活观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85926586756/#mid=1589537927453710</t>
+  </si>
+  <si>
+    <t>TMT研究社</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/84653552419/#mid=1588834409136132</t>
+  </si>
+  <si>
+    <t>百变的汽车</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85789007005/#mid=1589460053771268</t>
+  </si>
+  <si>
+    <t>财经精点</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/98011037558/#mid=1599777632769032</t>
+  </si>
+  <si>
+    <t>财经速汇</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100198082239/#mid=1603682752325640</t>
+  </si>
+  <si>
+    <t>财经鲜闻报道</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100199757797/#mid=1604042946106376</t>
+  </si>
+  <si>
+    <t>财经咨询</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/55711430404/#mid=1570108039134209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财新社
+</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/91709150480/#mid=1591908798432259</t>
+  </si>
+  <si>
+    <t>车市黑马</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85786755956/#mid=1589458387848199</t>
+  </si>
+  <si>
+    <t>大话房地产</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100116037329/#mid=1603236758119437</t>
+  </si>
+  <si>
+    <t>当季旅行</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/92097335264/#mid=1592195353342990</t>
+  </si>
+  <si>
+    <t>地产商业观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/86210556115/#mid=1589664462502925</t>
+  </si>
+  <si>
+    <t>地产与观察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/86183784841/#mid=1589664291884035</t>
+  </si>
+  <si>
+    <t>第五财经</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/99021376502/#mid=1603683188011015</t>
+  </si>
+  <si>
+    <t>第一旅行</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/87993288469/#mid=1590635372344334</t>
+  </si>
+  <si>
+    <t>第壹美食</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100723719195/#mid=1604218101946375</t>
+  </si>
+  <si>
+    <t>电竞八卦谈</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/92981213988/#mid=1592902838792206</t>
+  </si>
+  <si>
+    <t>电竞太保</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85823095744/#mid=1589472970884104</t>
+  </si>
+  <si>
+    <t>电商前沿动态</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100723909311/#mid=1604211215532045</t>
+  </si>
+  <si>
+    <t>电商战</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100198093665/#mid=1603682657226766</t>
+  </si>
+  <si>
+    <t>电商资讯早知道</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100722400975/#mid=1604243674602500</t>
+  </si>
+  <si>
+    <t>鼎盛商业评论</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/73466268226/#mid=1582312718570510</t>
+  </si>
+  <si>
+    <t>东方体育网</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/87082268058/#mid=1590113795059725</t>
+  </si>
+  <si>
+    <t>洞悉视界</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85807375184/#mid=1589468336395268</t>
+  </si>
+  <si>
+    <t>都玩游戏</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/93458105218/#mid=1592904341057550</t>
+  </si>
+  <si>
+    <t>独道体育</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/87993453062/#mid=1590633576040455</t>
+  </si>
+  <si>
+    <t>房产天下汇</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100115375341/#mid=1603222344583176</t>
+  </si>
+  <si>
+    <t>高科技指南</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100189871829/#mid=1603229370777608</t>
+  </si>
+  <si>
+    <t>各地地道美食</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/86213166625/#mid=1589665624843272</t>
+  </si>
+  <si>
+    <t>行车指南针</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/88116097894/#mid=1590642451449870</t>
+  </si>
+  <si>
+    <t>好懂车</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85773971049/#mid=1589453694878724</t>
+  </si>
+  <si>
+    <t>好玩游戏排行</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/92980441082/#mid=1592892091962371</t>
+  </si>
+  <si>
+    <t>黑帮游戏</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/92980658208/#mid=1592815244262407</t>
+  </si>
+  <si>
+    <t>黑科技大爆炸</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/74001293237/#mid=1582776421977102</t>
+  </si>
+  <si>
+    <t>黑科技风云榜</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100722515759/#mid=1604311133017095</t>
+  </si>
+  <si>
+    <t>黑科技时评</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100723695884/#mid=1604310846313479</t>
+  </si>
+  <si>
+    <t>互联圈的那些事儿</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/98731099580/#mid=1603714546234372</t>
+  </si>
+  <si>
+    <t>互联圈风云榜</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100124629383/#mid=1603713616130055</t>
+  </si>
+  <si>
+    <t>互联圈深度分析</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100498694259/#mid=1603714016046084</t>
+  </si>
+  <si>
+    <t>互联网扒皮帝</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/61845132647/#mid=1569912796364801</t>
+  </si>
+  <si>
+    <t>互联网电商观察泛</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85072907457/#mid=1589113314282510</t>
+  </si>
+  <si>
+    <t>互联网观察圈</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/58725263137/#mid=1563360673675266</t>
+  </si>
+  <si>
+    <t>互联网科技最前沿</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85070445551/#mid=1589112908195847</t>
+  </si>
+  <si>
+    <t>互联网商业洞察</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/53518334468/#mid=1576975958951950</t>
+  </si>
+  <si>
+    <t>互联网商业视觉</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/60508008502/#mid=1567657512302594</t>
+  </si>
+  <si>
+    <t>环球美食君</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100724668873/#mid=1604219166416903</t>
+  </si>
+  <si>
+    <t>火星理财</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100536142987/#mid=1603803631433732</t>
+  </si>
+  <si>
+    <t>火眼看财经</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/96488306375/#mid=1599777789258760</t>
+  </si>
+  <si>
+    <t>极道数码</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85065123588/#mid=1589112114097159</t>
+  </si>
+  <si>
+    <t>健康观察网</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100120907825/#mid=1603682224499720</t>
+  </si>
+  <si>
+    <t>健康资讯说</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/98738458701/#mid=1603682025089038</t>
+  </si>
+  <si>
+    <t>教育新方向</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/86300999942/#mid=1589749053819911</t>
+  </si>
+  <si>
+    <t>教育指南</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/59594761723/#mid=1576863879364621</t>
+  </si>
+  <si>
+    <t>教育纵横</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/84653465439/#mid=1588834025286660</t>
+  </si>
+  <si>
+    <t>经济观察视界</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85670605298/#mid=1589463327033347</t>
+  </si>
+  <si>
+    <t>经济界面</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/70087084093/#mid=1579333564921870</t>
+  </si>
+  <si>
+    <t>竞技二次元</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/85502100184/#mid=1589533892409347</t>
+  </si>
+  <si>
+    <t>聚焦教育</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/84645417855/#mid=1588832507363336</t>
+  </si>
+  <si>
+    <t>聚焦体坛</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/88093129394/#mid=1590633346404365</t>
+  </si>
+  <si>
+    <t>科技扒皮帝</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/100724753897/#mid=1604311207595022</t>
+  </si>
+  <si>
+    <t>科技创业邦</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/c/user/98744072322/#mid=1603236483916803</t>
+  </si>
+  <si>
+    <t>女性时尚</t>
+  </si>
+  <si>
+    <t>财经</t>
+  </si>
+  <si>
+    <t>生活资讯</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>电商</t>
+  </si>
+  <si>
+    <t>文学文化</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>家居</t>
+  </si>
+  <si>
+    <t>健康养生</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>地方</t>
+  </si>
+  <si>
+    <t>影视</t>
+  </si>
+  <si>
+    <t>房地产</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -977,6 +1365,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,11 +1645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1313,25 +1704,22 @@
     </row>
     <row r="2" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>401</v>
       </c>
       <c r="H2" s="2">
-        <v>130</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
@@ -1342,25 +1730,22 @@
     </row>
     <row r="3" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="H3" s="2">
-        <v>70</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>13</v>
@@ -1371,25 +1756,22 @@
     </row>
     <row r="4" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="H4" s="2">
-        <v>110</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>13</v>
@@ -1400,25 +1782,22 @@
     </row>
     <row r="5" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="H5" s="2">
-        <v>60</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>13</v>
@@ -1429,25 +1808,22 @@
     </row>
     <row r="6" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="H6" s="2">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>13</v>
@@ -1458,25 +1834,22 @@
     </row>
     <row r="7" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>405</v>
       </c>
       <c r="H7" s="2">
-        <v>110</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>13</v>
@@ -1487,25 +1860,22 @@
     </row>
     <row r="8" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2">
-        <v>110</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>13</v>
@@ -1516,25 +1886,22 @@
     </row>
     <row r="9" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2">
-        <v>160</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>13</v>
@@ -1545,25 +1912,22 @@
     </row>
     <row r="10" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="H10" s="2">
-        <v>160</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>13</v>
@@ -1574,25 +1938,22 @@
     </row>
     <row r="11" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="H11" s="2">
-        <v>160</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>13</v>
@@ -1603,25 +1964,22 @@
     </row>
     <row r="12" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="H12" s="2">
-        <v>160</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>13</v>
@@ -1632,25 +1990,22 @@
     </row>
     <row r="13" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="H13" s="2">
-        <v>210</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>13</v>
@@ -1661,25 +2016,22 @@
     </row>
     <row r="14" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>155</v>
+        <v>401</v>
       </c>
       <c r="H14" s="2">
-        <v>65</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>13</v>
@@ -1690,25 +2042,22 @@
     </row>
     <row r="15" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>155</v>
+        <v>407</v>
       </c>
       <c r="H15" s="2">
-        <v>60</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>13</v>
@@ -1719,25 +2068,22 @@
     </row>
     <row r="16" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2">
-        <v>115</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>13</v>
@@ -1748,25 +2094,22 @@
     </row>
     <row r="17" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2">
-        <v>115</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>13</v>
@@ -1777,25 +2120,22 @@
     </row>
     <row r="18" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="H18" s="2">
-        <v>65</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>13</v>
@@ -1806,25 +2146,22 @@
     </row>
     <row r="19" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="H19" s="2">
-        <v>60</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>13</v>
@@ -1835,25 +2172,22 @@
     </row>
     <row r="20" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2">
-        <v>65</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>13</v>
@@ -1864,25 +2198,22 @@
     </row>
     <row r="21" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2">
-        <v>65</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>13</v>
@@ -1893,25 +2224,22 @@
     </row>
     <row r="22" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2">
-        <v>60</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>13</v>
@@ -1922,25 +2250,22 @@
     </row>
     <row r="23" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>155</v>
+        <v>409</v>
       </c>
       <c r="H23" s="2">
-        <v>120</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>13</v>
@@ -1951,25 +2276,22 @@
     </row>
     <row r="24" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" s="2">
-        <v>70</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="H24" s="4">
+        <v>130</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>13</v>
@@ -1980,25 +2302,22 @@
     </row>
     <row r="25" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H25" s="2">
-        <v>70</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>13</v>
@@ -2009,25 +2328,22 @@
     </row>
     <row r="26" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>402</v>
       </c>
       <c r="H26" s="2">
-        <v>70</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>13</v>
@@ -2038,25 +2354,22 @@
     </row>
     <row r="27" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="H27" s="2">
-        <v>70</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>13</v>
@@ -2067,25 +2380,22 @@
     </row>
     <row r="28" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="H28" s="2">
-        <v>65</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>13</v>
@@ -2096,25 +2406,22 @@
     </row>
     <row r="29" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="H29" s="2">
-        <v>65</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>13</v>
@@ -2125,26 +2432,23 @@
     </row>
     <row r="30" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>155</v>
+        <v>412</v>
       </c>
       <c r="H30" s="2">
         <v>100</v>
       </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
       <c r="L30" s="2" t="s">
         <v>13</v>
       </c>
@@ -2154,26 +2458,23 @@
     </row>
     <row r="31" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H31" s="2">
         <v>100</v>
       </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
       <c r="L31" s="2" t="s">
         <v>13</v>
       </c>
@@ -2183,25 +2484,22 @@
     </row>
     <row r="32" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="H32" s="2">
-        <v>120</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>13</v>
@@ -2212,25 +2510,22 @@
     </row>
     <row r="33" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>155</v>
+        <v>413</v>
       </c>
       <c r="H33" s="2">
-        <v>80</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>13</v>
@@ -2241,25 +2536,22 @@
     </row>
     <row r="34" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>155</v>
+        <v>405</v>
       </c>
       <c r="H34" s="2">
-        <v>80</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>13</v>
@@ -2270,25 +2562,22 @@
     </row>
     <row r="35" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H35" s="2">
-        <v>80</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>13</v>
@@ -2299,25 +2588,22 @@
     </row>
     <row r="36" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H36" s="2">
-        <v>80</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>13</v>
@@ -2328,25 +2614,22 @@
     </row>
     <row r="37" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H37" s="2">
-        <v>80</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>13</v>
@@ -2357,25 +2640,22 @@
     </row>
     <row r="38" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H38" s="2">
-        <v>80</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>13</v>
@@ -2386,25 +2666,22 @@
     </row>
     <row r="39" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
       <c r="H39" s="2">
-        <v>80</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>13</v>
@@ -2415,25 +2692,22 @@
     </row>
     <row r="40" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>155</v>
+        <v>407</v>
       </c>
       <c r="H40" s="2">
-        <v>80</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>13</v>
@@ -2444,25 +2718,22 @@
     </row>
     <row r="41" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H41" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>13</v>
@@ -2473,25 +2744,22 @@
     </row>
     <row r="42" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="H42" s="2">
-        <v>80</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>13</v>
@@ -2502,25 +2770,22 @@
     </row>
     <row r="43" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H43" s="2">
-        <v>80</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>13</v>
@@ -2531,25 +2796,22 @@
     </row>
     <row r="44" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2">
-        <v>80</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>13</v>
@@ -2560,25 +2822,22 @@
     </row>
     <row r="45" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H45" s="2">
-        <v>60</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>13</v>
@@ -2589,25 +2848,22 @@
     </row>
     <row r="46" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H46" s="2">
-        <v>80</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>13</v>
@@ -2618,25 +2874,22 @@
     </row>
     <row r="47" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H47" s="2">
-        <v>65</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>13</v>
@@ -2647,25 +2900,22 @@
     </row>
     <row r="48" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>155</v>
+        <v>402</v>
       </c>
       <c r="H48" s="2">
-        <v>100</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>13</v>
@@ -2676,25 +2926,22 @@
     </row>
     <row r="49" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="H49" s="2">
-        <v>100</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>13</v>
@@ -2705,25 +2952,22 @@
     </row>
     <row r="50" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H50" s="2">
-        <v>80</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>13</v>
@@ -2734,25 +2978,22 @@
     </row>
     <row r="51" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="H51" s="2">
-        <v>80</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>13</v>
@@ -2763,25 +3004,22 @@
     </row>
     <row r="52" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="H52" s="2">
-        <v>80</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>13</v>
@@ -2792,25 +3030,22 @@
     </row>
     <row r="53" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>155</v>
+        <v>409</v>
       </c>
       <c r="H53" s="2">
-        <v>80</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>13</v>
@@ -2821,25 +3056,22 @@
     </row>
     <row r="54" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>155</v>
+        <v>412</v>
       </c>
       <c r="H54" s="2">
-        <v>80</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>13</v>
@@ -2850,25 +3082,22 @@
     </row>
     <row r="55" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H55" s="2">
-        <v>80</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>13</v>
@@ -2879,25 +3108,22 @@
     </row>
     <row r="56" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H56" s="2">
-        <v>80</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>13</v>
@@ -2908,25 +3134,22 @@
     </row>
     <row r="57" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H57" s="2">
-        <v>80</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>13</v>
@@ -2937,25 +3160,22 @@
     </row>
     <row r="58" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>155</v>
+        <v>405</v>
       </c>
       <c r="H58" s="2">
-        <v>80</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>13</v>
@@ -2966,25 +3186,22 @@
     </row>
     <row r="59" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
       <c r="H59" s="2">
-        <v>80</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>13</v>
@@ -2995,25 +3212,22 @@
     </row>
     <row r="60" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H60" s="2">
-        <v>60</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>13</v>
@@ -3024,25 +3238,22 @@
     </row>
     <row r="61" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H61" s="2">
-        <v>75</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>13</v>
@@ -3053,25 +3264,22 @@
     </row>
     <row r="62" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>155</v>
+        <v>413</v>
       </c>
       <c r="H62" s="2">
-        <v>75</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>13</v>
@@ -3082,25 +3290,22 @@
     </row>
     <row r="63" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H63" s="2">
-        <v>80</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>13</v>
@@ -3111,25 +3316,22 @@
     </row>
     <row r="64" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H64" s="2">
-        <v>80</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>13</v>
@@ -3140,25 +3342,22 @@
     </row>
     <row r="65" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H65" s="2">
-        <v>80</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>13</v>
@@ -3169,25 +3368,22 @@
     </row>
     <row r="66" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H66" s="2">
-        <v>80</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>13</v>
@@ -3198,25 +3394,19 @@
     </row>
     <row r="67" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H67" s="2">
-        <v>80</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>13</v>
@@ -3227,25 +3417,22 @@
     </row>
     <row r="68" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="H68" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>13</v>
@@ -3256,25 +3443,22 @@
     </row>
     <row r="69" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H69" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>13</v>
@@ -3285,25 +3469,22 @@
     </row>
     <row r="70" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H70" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>13</v>
@@ -3314,25 +3495,22 @@
     </row>
     <row r="71" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H71" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>13</v>
@@ -3343,25 +3521,22 @@
     </row>
     <row r="72" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H72" s="2">
-        <v>80</v>
-      </c>
-      <c r="I72" s="2">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>13</v>
@@ -3372,25 +3547,22 @@
     </row>
     <row r="73" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H73" s="2">
-        <v>80</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>13</v>
@@ -3401,25 +3573,22 @@
     </row>
     <row r="74" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H74" s="2">
-        <v>80</v>
-      </c>
-      <c r="I74" s="2">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>13</v>
@@ -3430,25 +3599,22 @@
     </row>
     <row r="75" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H75" s="2">
-        <v>80</v>
-      </c>
-      <c r="I75" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>13</v>
@@ -3459,25 +3625,22 @@
     </row>
     <row r="76" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H76" s="2">
-        <v>80</v>
-      </c>
-      <c r="I76" s="2">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>13</v>
@@ -3488,25 +3651,22 @@
     </row>
     <row r="77" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H77" s="2">
-        <v>80</v>
-      </c>
-      <c r="I77" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>13</v>
@@ -3517,25 +3677,22 @@
     </row>
     <row r="78" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H78" s="2">
-        <v>80</v>
-      </c>
-      <c r="I78" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>13</v>
@@ -3546,25 +3703,22 @@
     </row>
     <row r="79" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H79" s="2">
-        <v>80</v>
-      </c>
-      <c r="I79" s="2">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>13</v>
@@ -3575,25 +3729,22 @@
     </row>
     <row r="80" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
       <c r="H80" s="2">
-        <v>80</v>
-      </c>
-      <c r="I80" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>13</v>
@@ -3604,25 +3755,22 @@
     </row>
     <row r="81" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H81" s="2">
-        <v>80</v>
-      </c>
-      <c r="I81" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>13</v>
@@ -3633,25 +3781,22 @@
     </row>
     <row r="82" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H82" s="2">
-        <v>80</v>
-      </c>
-      <c r="I82" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>13</v>
@@ -3662,25 +3807,22 @@
     </row>
     <row r="83" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
       <c r="H83" s="2">
-        <v>70</v>
-      </c>
-      <c r="I83" s="2">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>13</v>
@@ -3691,25 +3833,22 @@
     </row>
     <row r="84" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="2">
         <v>150</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H84" s="2">
-        <v>70</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>13</v>
@@ -3720,25 +3859,22 @@
     </row>
     <row r="85" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="H85" s="2">
-        <v>70</v>
-      </c>
-      <c r="I85" s="2">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>13</v>
@@ -3749,25 +3885,22 @@
     </row>
     <row r="86" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H86" s="2">
-        <v>70</v>
-      </c>
-      <c r="I86" s="2">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>13</v>
@@ -3778,25 +3911,22 @@
     </row>
     <row r="87" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H87" s="2">
-        <v>80</v>
-      </c>
-      <c r="I87" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>13</v>
@@ -3807,25 +3937,22 @@
     </row>
     <row r="88" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="H88" s="2">
-        <v>230</v>
-      </c>
-      <c r="I88" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>13</v>
@@ -3836,25 +3963,22 @@
     </row>
     <row r="89" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H89" s="2">
-        <v>90</v>
-      </c>
-      <c r="I89" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>13</v>
@@ -3865,25 +3989,22 @@
     </row>
     <row r="90" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="H90" s="2">
-        <v>90</v>
-      </c>
-      <c r="I90" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>13</v>
@@ -3894,25 +4015,19 @@
     </row>
     <row r="91" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H91" s="2">
-        <v>210</v>
-      </c>
-      <c r="I91" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>13</v>
@@ -3923,25 +4038,22 @@
     </row>
     <row r="92" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="H92" s="2">
-        <v>210</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>13</v>
@@ -3952,25 +4064,22 @@
     </row>
     <row r="93" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H93" s="2">
-        <v>75</v>
-      </c>
-      <c r="I93" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>13</v>
@@ -3981,25 +4090,22 @@
     </row>
     <row r="94" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H94" s="2">
-        <v>80</v>
-      </c>
-      <c r="I94" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>13</v>
@@ -4010,25 +4116,22 @@
     </row>
     <row r="95" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H95" s="2">
-        <v>80</v>
-      </c>
-      <c r="I95" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>13</v>
@@ -4039,25 +4142,22 @@
     </row>
     <row r="96" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H96" s="2">
-        <v>80</v>
-      </c>
-      <c r="I96" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>13</v>
@@ -4068,25 +4168,22 @@
     </row>
     <row r="97" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>155</v>
+        <v>416</v>
       </c>
       <c r="H97" s="2">
-        <v>80</v>
-      </c>
-      <c r="I97" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>13</v>
@@ -4097,25 +4194,22 @@
     </row>
     <row r="98" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>155</v>
+        <v>416</v>
       </c>
       <c r="H98" s="2">
-        <v>80</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>13</v>
@@ -4126,25 +4220,22 @@
     </row>
     <row r="99" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>155</v>
+        <v>417</v>
       </c>
       <c r="H99" s="2">
-        <v>80</v>
-      </c>
-      <c r="I99" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>13</v>
@@ -4155,25 +4246,22 @@
     </row>
     <row r="100" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="H100" s="2">
-        <v>80</v>
-      </c>
-      <c r="I100" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>13</v>
@@ -4184,25 +4272,22 @@
     </row>
     <row r="101" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H101" s="2">
-        <v>80</v>
-      </c>
-      <c r="I101" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>13</v>
@@ -4213,25 +4298,22 @@
     </row>
     <row r="102" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="H102" s="2">
-        <v>80</v>
-      </c>
-      <c r="I102" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>13</v>
@@ -4242,25 +4324,22 @@
     </row>
     <row r="103" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H103" s="2">
-        <v>80</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>13</v>
@@ -4271,25 +4350,22 @@
     </row>
     <row r="104" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H104" s="2">
-        <v>80</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>13</v>
@@ -4300,25 +4376,22 @@
     </row>
     <row r="105" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H105" s="2">
-        <v>80</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>13</v>
@@ -4329,25 +4402,22 @@
     </row>
     <row r="106" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H106" s="2">
-        <v>75</v>
-      </c>
-      <c r="I106" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>13</v>
@@ -4358,25 +4428,22 @@
     </row>
     <row r="107" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>155</v>
+        <v>405</v>
       </c>
       <c r="H107" s="2">
-        <v>75</v>
-      </c>
-      <c r="I107" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>13</v>
@@ -4387,25 +4454,22 @@
     </row>
     <row r="108" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="H108" s="2">
-        <v>75</v>
-      </c>
-      <c r="I108" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>13</v>
@@ -4416,25 +4480,22 @@
     </row>
     <row r="109" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H109" s="2">
-        <v>75</v>
-      </c>
-      <c r="I109" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>13</v>
@@ -4445,25 +4506,22 @@
     </row>
     <row r="110" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="H110" s="2">
-        <v>75</v>
-      </c>
-      <c r="I110" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>13</v>
@@ -4474,25 +4532,22 @@
     </row>
     <row r="111" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
       <c r="H111" s="2">
-        <v>75</v>
-      </c>
-      <c r="I111" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>13</v>
@@ -4503,25 +4558,22 @@
     </row>
     <row r="112" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="H112" s="2">
-        <v>75</v>
-      </c>
-      <c r="I112" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>13</v>
@@ -4532,25 +4584,22 @@
     </row>
     <row r="113" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="H113" s="2">
-        <v>75</v>
-      </c>
-      <c r="I113" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>13</v>
@@ -4561,25 +4610,22 @@
     </row>
     <row r="114" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H114" s="2">
-        <v>75</v>
-      </c>
-      <c r="I114" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>13</v>
@@ -4590,25 +4636,22 @@
     </row>
     <row r="115" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H115" s="2">
-        <v>75</v>
-      </c>
-      <c r="I115" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>13</v>
@@ -4619,25 +4662,22 @@
     </row>
     <row r="116" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H116" s="2">
-        <v>90</v>
-      </c>
-      <c r="I116" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>13</v>
@@ -4648,25 +4688,22 @@
     </row>
     <row r="117" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>155</v>
+        <v>405</v>
       </c>
       <c r="H117" s="2">
-        <v>110</v>
-      </c>
-      <c r="I117" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>13</v>
@@ -4677,25 +4714,22 @@
     </row>
     <row r="118" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H118" s="2">
-        <v>50</v>
-      </c>
-      <c r="I118" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>13</v>
@@ -4706,25 +4740,22 @@
     </row>
     <row r="119" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>155</v>
+        <v>401</v>
       </c>
       <c r="H119" s="2">
-        <v>130</v>
-      </c>
-      <c r="I119" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>13</v>
@@ -4735,25 +4766,22 @@
     </row>
     <row r="120" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
       <c r="H120" s="2">
-        <v>130</v>
-      </c>
-      <c r="I120" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>13</v>
@@ -4764,25 +4792,22 @@
     </row>
     <row r="121" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H121" s="2">
-        <v>90</v>
-      </c>
-      <c r="I121" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>13</v>
@@ -4793,25 +4818,22 @@
     </row>
     <row r="122" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="H122" s="2">
-        <v>90</v>
-      </c>
-      <c r="I122" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>13</v>
@@ -4822,25 +4844,22 @@
     </row>
     <row r="123" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="H123" s="2">
-        <v>80</v>
-      </c>
-      <c r="I123" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>13</v>
@@ -4851,26 +4870,23 @@
     </row>
     <row r="124" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H124" s="2">
         <v>100</v>
       </c>
-      <c r="I124" s="2">
-        <v>0</v>
-      </c>
       <c r="L124" s="2" t="s">
         <v>13</v>
       </c>
@@ -4880,25 +4896,22 @@
     </row>
     <row r="125" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H125" s="2">
-        <v>90</v>
-      </c>
-      <c r="I125" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>13</v>
@@ -4909,26 +4922,23 @@
     </row>
     <row r="126" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="H126" s="2">
         <v>100</v>
       </c>
-      <c r="I126" s="2">
-        <v>0</v>
-      </c>
       <c r="L126" s="2" t="s">
         <v>13</v>
       </c>
@@ -4938,25 +4948,22 @@
     </row>
     <row r="127" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>155</v>
+        <v>402</v>
       </c>
       <c r="H127" s="2">
-        <v>60</v>
-      </c>
-      <c r="I127" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>13</v>
@@ -4967,25 +4974,22 @@
     </row>
     <row r="128" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H128" s="2">
-        <v>50</v>
-      </c>
-      <c r="I128" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>13</v>
@@ -4996,25 +5000,22 @@
     </row>
     <row r="129" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="H129" s="2">
-        <v>70</v>
-      </c>
-      <c r="I129" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>13</v>
@@ -5025,25 +5026,22 @@
     </row>
     <row r="130" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H130" s="2">
-        <v>60</v>
-      </c>
-      <c r="I130" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>13</v>
@@ -5054,25 +5052,22 @@
     </row>
     <row r="131" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="H131" s="2">
-        <v>60</v>
-      </c>
-      <c r="I131" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>13</v>
@@ -5083,25 +5078,22 @@
     </row>
     <row r="132" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>402</v>
       </c>
       <c r="H132" s="2">
-        <v>60</v>
-      </c>
-      <c r="I132" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>13</v>
@@ -5112,25 +5104,22 @@
     </row>
     <row r="133" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H133" s="2">
-        <v>150</v>
-      </c>
-      <c r="I133" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>13</v>
@@ -5141,30 +5130,1561 @@
     </row>
     <row r="134" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H134" s="2">
+        <v>300</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" s="2">
+        <v>300</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H136" s="2">
+        <v>300</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F134" s="2" t="s">
+      <c r="D137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H137" s="2">
+        <v>300</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H138" s="2">
+        <v>300</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H139" s="2">
+        <v>300</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H140" s="2">
+        <v>300</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" s="2">
+        <v>300</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H142" s="2">
+        <v>300</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H143" s="2">
+        <v>300</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H144" s="2">
+        <v>300</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H145" s="2">
+        <v>300</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H146" s="2">
+        <v>300</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H147" s="2">
+        <v>300</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H148" s="2">
+        <v>300</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H134" s="2">
-        <v>150</v>
-      </c>
-      <c r="I134" s="2">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M134" t="s">
+      <c r="H149" s="2">
+        <v>300</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" s="2">
+        <v>300</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H151" s="2">
+        <v>300</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H152" s="2">
+        <v>300</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H153" s="2">
+        <v>300</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H154" s="2">
+        <v>300</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H155" s="2">
+        <v>300</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H156" s="2">
+        <v>300</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H157" s="2">
+        <v>300</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H158" s="2">
+        <v>300</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H159" s="2">
+        <v>300</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" s="2">
+        <v>300</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H161" s="2">
+        <v>300</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" s="2">
+        <v>300</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H163" s="2">
+        <v>300</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H164" s="2">
+        <v>300</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H165" s="2">
+        <v>300</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="2">
+        <v>300</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" s="2">
+        <v>300</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" s="2">
+        <v>300</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="2">
+        <v>300</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" s="2">
+        <v>300</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" s="2">
+        <v>300</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" s="2">
+        <v>300</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" s="2">
+        <v>300</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" s="2">
+        <v>300</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" s="2">
+        <v>300</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" s="2">
+        <v>300</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" s="2">
+        <v>300</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H178" s="2">
+        <v>300</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H179" s="2">
+        <v>300</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H180" s="2">
+        <v>300</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" s="2">
+        <v>300</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H182" s="2">
+        <v>300</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H183" s="2">
+        <v>300</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H184" s="2">
+        <v>300</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H185" s="2">
+        <v>300</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H186" s="2">
+        <v>300</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H187" s="2">
+        <v>300</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H188" s="2">
+        <v>300</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" s="2">
+        <v>300</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H190" s="2">
+        <v>300</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H191" s="2">
+        <v>300</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H192" s="2">
+        <v>300</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H193" s="2">
+        <v>300</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M193" t="s">
         <v>14</v>
       </c>
     </row>
